--- a/biology/Médecine/Centre_hospitalier_de_Bigorre_(La_Gespe)/Centre_hospitalier_de_Bigorre_(La_Gespe).xlsx
+++ b/biology/Médecine/Centre_hospitalier_de_Bigorre_(La_Gespe)/Centre_hospitalier_de_Bigorre_(La_Gespe).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier de Bigorre (La Gespe), ou centre hospitalier de Tarbes, est un centre hospitalier situé dans le quartier de La Gespe à Tarbes (canton de Tarbes 3), département des Hautes-Pyrénées en région Occitanie.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre hospitalier de Bigorre (La Gespe) était situé sur le site de l'Ayguerote, quartier Centre-ville,créé par le roi Louis XIV en 1703, l'hôpital Saint Joseph devient l'hôpital de l’Ayguerote puis le Centre Hospitalier de Tarbes en 1956 et s'agrandit peu à peu jusqu'en 1970. 
-La construction du nouvel hôpital périurbain, situé au bord du ruisseau de la Gespe, est inauguré le 26 novembre 1979 et devient le site de court séjour du centre hospitalier de Bigorre (La Gespe)[1].
+La construction du nouvel hôpital périurbain, situé au bord du ruisseau de la Gespe, est inauguré le 26 novembre 1979 et devient le site de court séjour du centre hospitalier de Bigorre (La Gespe).
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le centre hospitalier de Bigorre (La Gespe) a une capacité de 345 lits et places, dont :
-Court-séjour : 345 (Médecine : 172, Chirurgie : 72, Urgence : 8, Obstétrique : 21…)[2]</t>
+Court-séjour : 345 (Médecine : 172, Chirurgie : 72, Urgence : 8, Obstétrique : 21…)</t>
         </is>
       </c>
     </row>
@@ -575,7 +591,9 @@
           <t>Missions et offre de soins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Offre hospitalière publique pour :
 la chirurgie vasculaire,
@@ -586,9 +604,43 @@
 la chirurgie ambulatoire
 la pneumologie
 La pédiatrie
-la cardiologie…
-Budget
-Quelques chiffres pour 2013[3]:
+la cardiologie…</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_de_Bigorre_(La_Gespe)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Bigorre_(La_Gespe)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Missions et offre de soins</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Budget</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Quelques chiffres pour 2013:
 son budget principal exploitation 148 494 720 €uros,
 produits versés par l'Assurance Maladie 90 289 374 €uros
 recettes diverses 21 629 985 €uros
@@ -597,31 +649,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Centre_hospitalier_de_Bigorre_(La_Gespe)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_de_Bigorre_(La_Gespe)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 1er juillet 1987,  le regroupement de trois sites : un site de court séjour (« La Gespe » à Tarbes) et deux sites gériatriques : L’Ayguerote à Tarbes et Vic-en-Bigorre forme le Centre Hospitalier Intercommunal de Tarbes - Vic en Bigorre (CHIC-TV) et le 6 juin 2003, l’établissement change de nom et devient le Centre Hospitalier de Bigorre (CHB). 
 </t>
